--- a/commercial_offer/utils/output.xlsx
+++ b/commercial_offer/utils/output.xlsx
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73dc74e7-8afb-4a0e-bb09-45b3f357dda7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1bd40541-c4e0-4ee1-a83c-a1f2141fbf40}">
   <dimension ref="A1:ZY16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -12053,7 +12053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8d0d7597-b2b9-4429-afb8-854feac3e8da}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4e69f0b2-40fb-419a-9607-b066c85177a7}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/commercial_offer/utils/output.xlsx
+++ b/commercial_offer/utils/output.xlsx
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1bd40541-c4e0-4ee1-a83c-a1f2141fbf40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3c4533f1-574e-4dc7-825a-6f2351ca21f5}">
   <dimension ref="A1:ZY16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -12053,7 +12053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4e69f0b2-40fb-419a-9607-b066c85177a7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a2fc5bb6-b87e-418e-bcbb-549e41f26df5}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/commercial_offer/utils/output.xlsx
+++ b/commercial_offer/utils/output.xlsx
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3c4533f1-574e-4dc7-825a-6f2351ca21f5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e10fb7ea-2ef5-461a-a43d-181ef3d31f76}">
   <dimension ref="A1:ZY16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -12053,7 +12053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a2fc5bb6-b87e-418e-bcbb-549e41f26df5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b39348bb-fb4f-4a94-a25e-8f7fa33877e1}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/commercial_offer/utils/output.xlsx
+++ b/commercial_offer/utils/output.xlsx
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e10fb7ea-2ef5-461a-a43d-181ef3d31f76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44513245-e30f-4bde-befe-3dfa914224bb}">
   <dimension ref="A1:ZY16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -12053,7 +12053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b39348bb-fb4f-4a94-a25e-8f7fa33877e1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7e277bec-b3ff-4ad4-bfaa-7715e3773dbc}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
